--- a/results/MVSE/acm/MVSE_acm<l03><NCEK>88.43.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l03><NCEK>88.43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,6 +1224,74 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O12" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-07_35_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/MVSE/acm/MVSE_acm<l03><NCEK>88.43.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l03><NCEK>88.43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>config2str</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>walk_hop</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -580,17 +585,18 @@
         <v>0.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-09_15_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_33_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -659,6 +665,7 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_51_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -731,10 +738,11 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -803,10 +811,11 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_30_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -826,14 +835,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -849,7 +858,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -858,23 +867,24 @@
         <v>0.33</v>
       </c>
       <c r="O6" t="n">
-        <v>88</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.53</v>
+        <v>0.19</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_33_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_59_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -886,11 +896,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -905,7 +911,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -930,23 +936,24 @@
         <v>0.33</v>
       </c>
       <c r="O7" t="n">
-        <v>87.95999999999999</v>
+        <v>88</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_48_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -958,7 +965,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>acm</t>
@@ -966,14 +977,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -989,13 +1000,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="O8" t="n">
         <v>87.95999999999999</v>
@@ -1004,17 +1015,18 @@
         <v>0.03</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.16</v>
+        <v>0.47</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_53_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_48_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,11 +1038,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1045,7 +1053,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1070,23 +1078,24 @@
         <v>0.32</v>
       </c>
       <c r="O9" t="n">
-        <v>87.79000000000001</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_10_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_16_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1113,7 +1122,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1128,33 +1137,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>8192</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="O10" t="n">
-        <v>87.69</v>
+        <v>87.88</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_13_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1185,7 +1195,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1201,28 +1211,29 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="O11" t="n">
-        <v>87.63</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_27_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_10_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1253,7 +1264,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1275,22 +1286,96 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="O12" t="n">
-        <v>86.45</v>
+        <v>87.69</v>
       </c>
       <c r="P12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_37_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O13" t="n">
+        <v>87.63</v>
+      </c>
+      <c r="P13" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-07_35_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+      <c r="Q13" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_27_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
